--- a/notes and sketches/documentation/demonstration.xlsx
+++ b/notes and sketches/documentation/demonstration.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAVID\coding\2024 onward\slitherlink\notes and sketches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAVID\coding\2024 onward\slitherlink\notes and sketches\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF9FD86-766A-419C-AFC2-71259C3B5F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4821D6C-D868-4522-B689-7E109BE432FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{9D63EC43-B67E-42C9-BA4E-E4189711E151}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9D63EC43-B67E-42C9-BA4E-E4189711E151}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Conversion" sheetId="1" r:id="rId1"/>
+    <sheet name="Wigglyness" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="4">
   <si>
     <t>•</t>
   </si>
@@ -45,6 +46,9 @@
   </si>
   <si>
     <t>⎯</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -73,12 +77,18 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -108,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -120,6 +130,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EDF771-6BB9-4A31-AAF9-5C427E048D16}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -718,4 +729,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CA83BA-E041-4D7F-A097-3F13C7D8BF7C}">
+  <dimension ref="B2:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="9" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>